--- a/코난 에피소드 DB.xlsx
+++ b/코난 에피소드 DB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365khu-my.sharepoint.com/personal/lyh2315_office_khu_ac_kr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Desktop\coNan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1024" documentId="13_ncr:9_{783B7607-E51F-4273-A90F-8D3F40741312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10BE635A-B2AF-4E60-B6A4-08CC8174C8BF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A85AE0D-5EC9-48B2-B1E5-E33453F33E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACB9CB05-0E7C-45E1-B85D-02453C783157}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="592">
   <si>
     <t>1기 1화</t>
   </si>
@@ -117,9 +117,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>검은 조직 10억 엔 강탈사건</t>
-  </si>
-  <si>
     <t>epSortation1</t>
   </si>
   <si>
@@ -249,39 +246,9 @@
     <t>#</t>
   </si>
   <si>
-    <t>제트코스터 살인사건</t>
-  </si>
-  <si>
-    <t>사장 영애 유괴사건</t>
-  </si>
-  <si>
-    <t>피아노 소나타 월광 살인사건</t>
-  </si>
-  <si>
-    <t>에도가와 코난 유괴사건</t>
-  </si>
-  <si>
-    <t>외교관 살인사건</t>
-  </si>
-  <si>
-    <t>상편</t>
-  </si>
-  <si>
-    <t>하편</t>
-  </si>
-  <si>
-    <t>게임 회사 살인사건</t>
-  </si>
-  <si>
-    <t>홈즈 프리크 살인사건</t>
-  </si>
-  <si>
     <t>코난 vs 괴도 키드</t>
   </si>
   <si>
-    <t>나니와의 연속 살인사건</t>
-  </si>
-  <si>
     <t>SPECIAL EPISODE</t>
   </si>
   <si>
@@ -291,9 +258,6 @@
     <t>검은 조직에서 온 여자와</t>
   </si>
   <si>
-    <t>검은 조직에서 온 여자,</t>
-  </si>
-  <si>
     <t>위조지폐 사건(전편)</t>
   </si>
   <si>
@@ -309,9 +273,6 @@
     <t>경기장 협박사건</t>
   </si>
   <si>
-    <t>경기장 무차별 협박사건</t>
-  </si>
-  <si>
     <t>전편</t>
   </si>
   <si>
@@ -330,9 +291,6 @@
     <t>하늘을 나는 밀실 남도일 최초의 사건</t>
   </si>
   <si>
-    <t>하늘 나는 밀실 쿠도 신이치 최초의 사건</t>
-  </si>
-  <si>
     <t>어둠 속의 사각</t>
   </si>
   <si>
@@ -360,991 +318,1584 @@
     <t>https://namu.wiki/w/%EC%BD%94%EB%82%9C%20vs%20%EA%B4%B4%EB%8F%84%20%ED%82%A4%EB%93%9C</t>
   </si>
   <si>
+    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%EC%97%90%EC%84%9C%20%EC%98%A8%20%EC%97%AC%EC%9E%90%2C%20%EB%8C%80%ED%95%99%EA%B5%90%EC%88%98%20%EC%82%B4%EC%9D%B8%EC%82%AC%EA%B1%B4</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%AC%98%ED%95%9C%20%EC%82%AC%EB%9E%8C%20%EC%B0%BE%EA%B8%B0%20%EC%82%B4%EC%9D%B8%EC%82%AC%EA%B1%B4?from=%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%2010%EC%96%B5%20%EC%97%94%20%EA%B0%95%ED%83%88%EC%82%AC%EA%B1%B4#s-4.2</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%ED%91%B8%EB%A5%B8%20%EA%B3%A0%EC%84%B1%20%ED%83%90%EC%83%89%20%EC%82%AC%EA%B1%B4</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%ED%95%98%EB%8A%98%20%EB%82%98%EB%8A%94%20%EB%B0%80%EC%8B%A4%20%EC%BF%A0%EB%8F%84%20%EC%8B%A0%EC%9D%B4%EC%B9%98%20%EC%B5%9C%EC%B4%88%EC%9D%98%20%EC%82%AC%EA%B1%B4</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%96%B4%EB%91%A0%20%EC%86%8D%EC%9D%98%20%EC%82%AC%EA%B0%81</t>
+  </si>
+  <si>
+    <t>검은 조직과의 재회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%EA%B3%BC%EC%9D%98%20%EC%9E%AC%ED%9A%8C</t>
+  </si>
+  <si>
+    <t>홍장미 편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>코난 편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결 편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>후편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>목숨을 건 부활</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%AA%A9%EC%88%A8%EC%9D%84%20%EA%B1%B4%20%EB%B6%80%ED%99%9C</t>
+  </si>
+  <si>
+    <t>동굴의 탐정단</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부상당한 명탐정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3제의 선택</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 옷의 기사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아온 신이치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>약속의 장소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%AA%A8%EC%97%AC%EB%93%A0%20%EB%AA%85%ED%83%90%EC%A0%95!%20%EC%BF%A0%EB%8F%84%20%EC%8B%A0%EC%9D%B4%EC%B9%98vs%EA%B4%B4%EB%8F%84%20%ED%82%A4%EB%93%9C</t>
+  </si>
+  <si>
+    <t>그리고 인어는 사라져 버렸다</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B7%B8%EB%A6%AC%EA%B3%A0%20%EC%9D%B8%EC%96%B4%EB%8A%94%20%EC%82%AC%EB%9D%BC%EC%A0%B8%20%EB%B2%84%EB%A0%B8%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>추리편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%B0%B0%ED%8B%80%EA%B2%8C%EC%9E%84%EC%9D%98%20%ED%95%A8%EC%A0%95</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%88%98%EC%88%98%EA%BB%98%EB%81%BC%EC%9D%98%20%EC%8A%B9%EA%B0%9D</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%90%ED%83%80%20%EC%86%8C%EB%85%84%EC%9D%98%20%EC%9E%AC%EB%82%9C</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%AA%85%ED%83%90%EC%A0%95%20%EC%BD%94%EB%82%9C/%EB%B3%B8%EC%B2%AD%EC%9D%98%20%ED%98%95%EC%82%AC%20%EC%82%AC%EB%9E%91%20%EC%9D%B4%EC%95%BC%EA%B8%B0#s-6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시카고에서 온 남자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%8B%9C%EC%B9%B4%EA%B3%A0%EC%97%90%EC%84%9C%20%EC%98%A8%20%EB%82%A8%EC%9E%90</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%B2%94%EC%A3%84%EC%9D%98%20%EC%9C%A0%ED%92%88</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%88%A8%EA%B8%B0%EA%B3%A0%20%EC%84%9C%EB%91%98%EB%9F%AC%20%EC%83%9D%EB%9E%B5</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%98%81%EC%96%B4%EA%B5%90%EC%82%ACvs%EC%84%9C%EC%AA%BD%EC%9D%98%20%EB%AA%85%ED%83%90%EC%A0%95</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%B0%A8%EC%9D%B4%EB%82%98%ED%83%80%EC%9A%B4%2C%20%EB%B9%84%EC%9D%98%20%EB%8D%B0%EC%9E%90%EB%B7%B0</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%BF%A0%EB%8F%84%20%EC%8B%A0%EC%9D%B4%EC%B9%98%20%EB%89%B4%EC%9A%95%EC%9D%98%20%EC%82%AC%EA%B1%B4</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%B0%A9%ED%99%A9%EC%9D%98%20%EC%88%B2%EC%9D%98%20%EB%AF%B8%EC%B8%A0%ED%9E%88%EC%BD%94</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%ED%9D%94%EB%93%A4%EB%A6%AC%EB%8A%94%20%EA%B2%BD%EC%8B%9C%EC%B2%AD%201200%EB%A7%8C%20%EB%AA%85%EC%9D%98%20%EC%9D%B8%EC%A7%88</t>
+  </si>
+  <si>
+    <t>남겨진 소리 없는 증언</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%82%A8%EA%B2%A8%EC%A7%84%20%EC%86%8C%EB%A6%AC%20%EC%97%86%EB%8A%94%20%EC%A6%9D%EC%96%B8</t>
+  </si>
+  <si>
+    <t>검은 조직과의 접촉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%EA%B3%BC%EC%9D%98%20%EC%A0%91%EC%B4%89</t>
+  </si>
+  <si>
+    <t>교섭편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>결사편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>석양에 물든 히나 인형</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%84%9D%EC%96%91%EC%97%90%20%EB%AC%BC%EB%93%A0%20%ED%9E%88%EB%82%98%20%EC%9D%B8%ED%98%95</t>
+  </si>
+  <si>
+    <t>돈으로 살 수 없는 우정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%8F%88%EC%9C%BC%EB%A1%9C%20%EC%82%B4%20%EC%88%98%20%EC%97%86%EB%8A%94%20%EC%9A%B0%EC%A0%95</t>
+  </si>
+  <si>
+    <t>4대의 포르쉐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/4%EB%8C%80%EC%9D%98%20%ED%8F%AC%EB%A5%B4%EC%89%90</t>
+  </si>
+  <si>
+    <t>화장실에 숨긴 비밀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%ED%99%94%EC%9E%A5%EC%8B%A4%EC%97%90%20%EC%88%A8%EA%B8%B4%20%EB%B9%84%EB%B0%80</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%EA%B3%BC%EC%9D%98%20%EC%A0%95%EB%A9%B4%20%EC%8A%B9%EB%B6%80%20%EB%A7%8C%EC%9B%94%EC%9D%98%20%EB%B0%A4%EC%9D%98%20%EB%8D%94%EB%B8%94%20%EB%AF%B8%EC%8A%A4%ED%84%B0%EB%A6%AC</t>
+  </si>
+  <si>
+    <t>편의점의 함정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%ED%8E%B8%EC%9D%98%EC%A0%90%EC%9D%98%20%ED%95%A8%EC%A0%95</t>
+  </si>
+  <si>
+    <t>엉덩이의 마크를 찾아라</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%97%89%EB%8D%A9%EC%9D%B4%EC%9D%98%20%EB%A7%88%ED%81%AC%EB%A5%BC%20%EC%B0%BE%EC%95%84%EB%9D%BC</t>
+  </si>
+  <si>
+    <t>별과 담배의 암호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%B3%84%EA%B3%BC%20%EB%8B%B4%EB%B0%B0%EC%9D%98%20%EC%95%94%ED%98%B8</t>
+  </si>
+  <si>
+    <t>테이탄 고됴 학교 괴담</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%ED%85%8C%EC%9D%B4%ED%83%84%EA%B3%A0%EA%B5%90%20%ED%95%99%EA%B5%90%20%EA%B4%B4%EB%8B%B4</t>
+  </si>
+  <si>
+    <t>스트라디바리우스의 불협화음</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%8A%A4%ED%8A%B8%EB%9D%BC%EB%94%94%EB%B0%94%EB%A6%AC%EC%9A%B0%EC%8A%A4%EC%9D%98%20%EB%B6%88%ED%98%91%ED%99%94%EC%9D%8C</t>
+  </si>
+  <si>
+    <t>전주곡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>간주곡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>후주곡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EA%B8%B0%EB%B0%9C%ED%95%9C%20%EC%A0%80%ED%83%9D%EC%9D%98%20%EB%8C%80%EB%AA%A8%ED%97%98</t>
+  </si>
+  <si>
+    <t>봉인편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼭두각시편</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행나무색의 첫사랑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%9D%80%ED%96%89%EB%82%98%EB%AC%B4%20%EC%83%89%20%EC%B2%AB%EC%82%AC%EB%9E%91</t>
+  </si>
+  <si>
+    <t>블랙 임팩트! 조직의 손이 닿는 순간</t>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EB%B8%94%EB%9E%99%20%EC%9E%84%ED%8C%A9%ED%8A%B8!%20%EC%A1%B0%EC%A7%81%EC%9D%98%20%EC%86%90%EC%9D%B4%20%EB%8B%BF%EB%8A%94%20%EC%88%9C%EA%B0%84</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003847034</t>
+  </si>
+  <si>
+    <t>url_tving_kr1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_tving_kr2</t>
+  </si>
+  <si>
+    <t>url_tving_kr3</t>
+  </si>
+  <si>
+    <t>url_tving_kr4</t>
+  </si>
+  <si>
+    <t>url_tving_kr5</t>
+  </si>
+  <si>
+    <t>url_tving_kr6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_tving_jp1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_tving_jp2</t>
+  </si>
+  <si>
+    <t>url_tving_jp3</t>
+  </si>
+  <si>
+    <t>url_tving_jp4</t>
+  </si>
+  <si>
+    <t>url_tving_jp5</t>
+  </si>
+  <si>
+    <t>url_tving_jp6</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003847035</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003853541</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003853542</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003868491</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003871927</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003871928</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003875430</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003878420</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003878821</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003889119</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003889120</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003923617</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003923618</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003933450</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003934685</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003934686</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003937272</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003937273</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003938084</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003938903</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003943399</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003943400</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003923097</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003923098</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003627451</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003627452</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003926728</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003926992</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003926991</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003937390</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003937863</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003937864</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003940612</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003940613</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003940892</t>
+  </si>
+  <si>
+    <t>모여든 명탐정! 남대일 대 괴도키드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 번째 이야기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번째 이야기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 번째 이야기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 이야기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001072396</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001072393</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001072394</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001072395</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001206692</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001206693</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001208823</t>
+  </si>
+  <si>
+    <t>격투게임의 함정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001215570</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001215571</t>
+  </si>
+  <si>
+    <t>수수께끼의 승객</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001220043</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001220044</t>
+  </si>
+  <si>
+    <t>뭉치의 수난시대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001232996</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001245333</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001245334</t>
+  </si>
+  <si>
+    <t>범죄의 사라진 증거</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001259135</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001259136</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003962374</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003962377</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003974984</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003974985</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003979838</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003979839</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003982756</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003984151</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003984152</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004048119</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004048120</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004059511</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004070846</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004070847</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004082457</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004082458</t>
+  </si>
+  <si>
+    <t>본청의 형사 사랑 이야기 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003747142</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003747143</t>
+  </si>
+  <si>
+    <t>가리고 서두르고 생략</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003752144</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003752003</t>
+  </si>
+  <si>
+    <t>영어교사 vs 소년 명탐정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001512529</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001528026</t>
+  </si>
+  <si>
+    <t>차이나타운에 내리는 비의 데자뷰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001567642</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001567643</t>
+  </si>
+  <si>
+    <t>남도일의 뉴욕사건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001580138</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001580139</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001595722</t>
+  </si>
+  <si>
+    <t>미로의 숲 속의 세모</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001595723</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E001611618</t>
+  </si>
+  <si>
+    <t>춤추는 경찰청 천만 명의 인질</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611404</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611405</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611440</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611441</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611444</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611445</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611446</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003972866</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003979357</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003983791</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003983792</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004046976</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004046975</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004047640</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004047641</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004051278</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004058273</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004058274</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004058275</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004060185</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004063844</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004066940</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004066943</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004079568</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E004083006</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611460</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611461</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003758314</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003758316</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003758315</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003758317</t>
+  </si>
+  <si>
+    <t>영화 현상소의 비밀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611467</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611468</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611469</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611470</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611471</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611472</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611473</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611474</t>
+  </si>
+  <si>
+    <t>제 1부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 2부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 3부</t>
+  </si>
+  <si>
+    <t>제 4부</t>
+  </si>
+  <si>
+    <t>제 5부</t>
+  </si>
+  <si>
+    <t>검은 조직과의 정면 승부 보름달 두 개의 미스터리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611475</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611476</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611477</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611478</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611479</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611480</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611481</t>
+  </si>
+  <si>
+    <t>고등학교의 괴담</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611491</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611492</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611506</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611507</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611508</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003767876</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003767877</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003777894</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003777895</t>
+  </si>
+  <si>
+    <t>기발한 저택에서의 대모험</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003530204</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003530205</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003533102</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003532803</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003535661</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003535663</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003538562</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003538563</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003541685</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003541739</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003544596</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003544597</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003548718</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003548719</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003551706</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003567305</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003571449</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003596774</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003596775</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003598677</t>
+  </si>
+  <si>
+    <t>은행잎 색 첫사랑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611517</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611518</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611621</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611622</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611623</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611624</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003611625</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003654375</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003654376</t>
+  </si>
+  <si>
+    <t>1부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2부</t>
+  </si>
+  <si>
+    <t>3부</t>
+  </si>
+  <si>
+    <t>4부</t>
+  </si>
+  <si>
+    <t>5부</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003660864</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003660865</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003664517</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003664518</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/player/E003667470</t>
+  </si>
+  <si>
+    <t>url_laftel_kr1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_laftel_kr2</t>
+  </si>
+  <si>
+    <t>url_laftel_kr3</t>
+  </si>
+  <si>
+    <t>url_laftel_kr4</t>
+  </si>
+  <si>
+    <t>url_laftel_kr5</t>
+  </si>
+  <si>
+    <t>url_laftel_kr6</t>
+  </si>
+  <si>
+    <t>url_laftel_jp1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_laftel_jp2</t>
+  </si>
+  <si>
+    <t>url_laftel_jp3</t>
+  </si>
+  <si>
+    <t>url_laftel_jp4</t>
+  </si>
+  <si>
+    <t>url_laftel_jp5</t>
+  </si>
+  <si>
+    <t>url_laftel_jp6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1부 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/58456</t>
+  </si>
+  <si>
+    <t>제트 코스터 살인 사건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사장 영애 유괴 사건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/58457</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/58716</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/58717</t>
+  </si>
+  <si>
+    <t>피아노 소나타『월광』살인 사건</t>
+  </si>
+  <si>
+    <t>에도가와 코난 유괴 사건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/60087</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/60328</t>
+  </si>
+  <si>
+    <t>외교관 살인 사건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/60329</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/60336</t>
+  </si>
+  <si>
+    <t>게임 회사 살인 사건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/60482</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/60483</t>
+  </si>
+  <si>
+    <t>홈즈 마니아 살인 사건</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/60769</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41278/60770</t>
+  </si>
+  <si>
+    <t>오사카 연쇄 살인 사건</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73812</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73813</t>
+  </si>
+  <si>
     <t>https://namu.wiki/w/%EB%82%98%EB%8B%88%EC%99%80%EC%9D%98%20%EC%97%B0%EC%86%8D%20%EC%82%B4%EC%9D%B8%EC%82%AC%EA%B1%B4</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%EC%97%90%EC%84%9C%20%EC%98%A8%20%EC%97%AC%EC%9E%90%2C%20%EB%8C%80%ED%95%99%EA%B5%90%EC%88%98%20%EC%82%B4%EC%9D%B8%EC%82%AC%EA%B1%B4</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%AC%98%ED%95%9C%20%EC%82%AC%EB%9E%8C%20%EC%B0%BE%EA%B8%B0%20%EC%82%B4%EC%9D%B8%EC%82%AC%EA%B1%B4?from=%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%2010%EC%96%B5%20%EC%97%94%20%EA%B0%95%ED%83%88%EC%82%AC%EA%B1%B4#s-4.2</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%ED%91%B8%EB%A5%B8%20%EA%B3%A0%EC%84%B1%20%ED%83%90%EC%83%89%20%EC%82%AC%EA%B1%B4</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%ED%95%98%EB%8A%98%20%EB%82%98%EB%8A%94%20%EB%B0%80%EC%8B%A4%20%EC%BF%A0%EB%8F%84%20%EC%8B%A0%EC%9D%B4%EC%B9%98%20%EC%B5%9C%EC%B4%88%EC%9D%98%20%EC%82%AC%EA%B1%B4</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%96%B4%EB%91%A0%20%EC%86%8D%EC%9D%98%20%EC%82%AC%EA%B0%81</t>
-  </si>
-  <si>
-    <t>검은 조직과의 재회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%EA%B3%BC%EC%9D%98%20%EC%9E%AC%ED%9A%8C</t>
-  </si>
-  <si>
-    <t>홍장미 편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>코난 편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결 편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>후편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>목숨을 건 부활</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%AA%A9%EC%88%A8%EC%9D%84%20%EA%B1%B4%20%EB%B6%80%ED%99%9C</t>
-  </si>
-  <si>
-    <t>동굴의 탐정단</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>부상당한 명탐정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3제의 선택</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은 옷의 기사</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌아온 신이치</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>약속의 장소</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>모여든 명탐정! 쿠도 신이치vs괴도 키드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%AA%A8%EC%97%AC%EB%93%A0%20%EB%AA%85%ED%83%90%EC%A0%95!%20%EC%BF%A0%EB%8F%84%20%EC%8B%A0%EC%9D%B4%EC%B9%98vs%EA%B4%B4%EB%8F%84%20%ED%82%A4%EB%93%9C</t>
-  </si>
-  <si>
-    <t>그리고 인어는 사라져 버렸다</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B7%B8%EB%A6%AC%EA%B3%A0%20%EC%9D%B8%EC%96%B4%EB%8A%94%20%EC%82%AC%EB%9D%BC%EC%A0%B8%20%EB%B2%84%EB%A0%B8%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>추리편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사건편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>베틀게임의 함정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%B0%B0%ED%8B%80%EA%B2%8C%EC%9E%84%EC%9D%98%20%ED%95%A8%EC%A0%95</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%88%98%EC%88%98%EA%BB%98%EB%81%BC%EC%9D%98%20%EC%8A%B9%EA%B0%9D</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%90%ED%83%80%20%EC%86%8C%EB%85%84%EC%9D%98%20%EC%9E%AC%EB%82%9C</t>
-  </si>
-  <si>
-    <t>겐타 소년의 재난</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%AA%85%ED%83%90%EC%A0%95%20%EC%BD%94%EB%82%9C/%EB%B3%B8%EC%B2%AD%EC%9D%98%20%ED%98%95%EC%82%AC%20%EC%82%AC%EB%9E%91%20%EC%9D%B4%EC%95%BC%EA%B8%B0#s-6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>시카고에서 온 남자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%8B%9C%EC%B9%B4%EA%B3%A0%EC%97%90%EC%84%9C%20%EC%98%A8%20%EB%82%A8%EC%9E%90</t>
-  </si>
-  <si>
-    <t>범죄의 유품</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%B2%94%EC%A3%84%EC%9D%98%20%EC%9C%A0%ED%92%88</t>
-  </si>
-  <si>
-    <t>숨기도 서둘러 생략</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%88%A8%EA%B8%B0%EA%B3%A0%20%EC%84%9C%EB%91%98%EB%9F%AC%20%EC%83%9D%EB%9E%B5</t>
-  </si>
-  <si>
-    <t>영어교사vs서쪽의 명탐정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%98%81%EC%96%B4%EA%B5%90%EC%82%ACvs%EC%84%9C%EC%AA%BD%EC%9D%98%20%EB%AA%85%ED%83%90%EC%A0%95</t>
-  </si>
-  <si>
-    <t>차이나타운, 비의 데자뷰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%B0%A8%EC%9D%B4%EB%82%98%ED%83%80%EC%9A%B4%2C%20%EB%B9%84%EC%9D%98%20%EB%8D%B0%EC%9E%90%EB%B7%B0</t>
-  </si>
-  <si>
-    <t>쿠도 신이치 NY의 사건</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%BF%A0%EB%8F%84%20%EC%8B%A0%EC%9D%B4%EC%B9%98%20%EB%89%B4%EC%9A%95%EC%9D%98%20%EC%82%AC%EA%B1%B4</t>
-  </si>
-  <si>
-    <t>방황의 숲의 미츠히코</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%B0%A9%ED%99%A9%EC%9D%98%20%EC%88%B2%EC%9D%98%20%EB%AF%B8%EC%B8%A0%ED%9E%88%EC%BD%94</t>
-  </si>
-  <si>
-    <t>흔들리는 경시청 1200만 명의 인질</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%ED%9D%94%EB%93%A4%EB%A6%AC%EB%8A%94%20%EA%B2%BD%EC%8B%9C%EC%B2%AD%201200%EB%A7%8C%20%EB%AA%85%EC%9D%98%20%EC%9D%B8%EC%A7%88</t>
-  </si>
-  <si>
-    <t>남겨진 소리 없는 증언</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%82%A8%EA%B2%A8%EC%A7%84%20%EC%86%8C%EB%A6%AC%20%EC%97%86%EB%8A%94%20%EC%A6%9D%EC%96%B8</t>
-  </si>
-  <si>
-    <t>검은 조직과의 접촉</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%EA%B3%BC%EC%9D%98%20%EC%A0%91%EC%B4%89</t>
-  </si>
-  <si>
-    <t>교섭편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>추적편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>결사편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>석양에 물든 히나 인형</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%84%9D%EC%96%91%EC%97%90%20%EB%AC%BC%EB%93%A0%20%ED%9E%88%EB%82%98%20%EC%9D%B8%ED%98%95</t>
-  </si>
-  <si>
-    <t>돈으로 살 수 없는 우정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%8F%88%EC%9C%BC%EB%A1%9C%20%EC%82%B4%20%EC%88%98%20%EC%97%86%EB%8A%94%20%EC%9A%B0%EC%A0%95</t>
-  </si>
-  <si>
-    <t>동도현상소의 비밀</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4대의 포르쉐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/4%EB%8C%80%EC%9D%98%20%ED%8F%AC%EB%A5%B4%EC%89%90</t>
-  </si>
-  <si>
-    <t>화장실에 숨긴 비밀</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%ED%99%94%EC%9E%A5%EC%8B%A4%EC%97%90%20%EC%88%A8%EA%B8%B4%20%EB%B9%84%EB%B0%80</t>
-  </si>
-  <si>
-    <t>검은 조직과의 정면 승부 만월의 밤의 더블 미스터리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B2%80%EC%9D%80%20%EC%A1%B0%EC%A7%81%EA%B3%BC%EC%9D%98%20%EC%A0%95%EB%A9%B4%20%EC%8A%B9%EB%B6%80%20%EB%A7%8C%EC%9B%94%EC%9D%98%20%EB%B0%A4%EC%9D%98%20%EB%8D%94%EB%B8%94%20%EB%AF%B8%EC%8A%A4%ED%84%B0%EB%A6%AC</t>
-  </si>
-  <si>
-    <t>편의점의 함정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%ED%8E%B8%EC%9D%98%EC%A0%90%EC%9D%98%20%ED%95%A8%EC%A0%95</t>
-  </si>
-  <si>
-    <t>엉덩이의 마크를 찾아라</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%97%89%EB%8D%A9%EC%9D%B4%EC%9D%98%20%EB%A7%88%ED%81%AC%EB%A5%BC%20%EC%B0%BE%EC%95%84%EB%9D%BC</t>
-  </si>
-  <si>
-    <t>별과 담배의 암호</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%B3%84%EA%B3%BC%20%EB%8B%B4%EB%B0%B0%EC%9D%98%20%EC%95%94%ED%98%B8</t>
-  </si>
-  <si>
-    <t>테이탄 고됴 학교 괴담</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%ED%85%8C%EC%9D%B4%ED%83%84%EA%B3%A0%EA%B5%90%20%ED%95%99%EA%B5%90%20%EA%B4%B4%EB%8B%B4</t>
-  </si>
-  <si>
-    <t>스트라디바리우스의 불협화음</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%8A%A4%ED%8A%B8%EB%9D%BC%EB%94%94%EB%B0%94%EB%A6%AC%EC%9A%B0%EC%8A%A4%EC%9D%98%20%EB%B6%88%ED%98%91%ED%99%94%EC%9D%8C</t>
-  </si>
-  <si>
-    <t>전주곡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>간주곡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>후주곡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기발한 저택의 대모험</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EA%B8%B0%EB%B0%9C%ED%95%9C%20%EC%A0%80%ED%83%9D%EC%9D%98%20%EB%8C%80%EB%AA%A8%ED%97%98</t>
-  </si>
-  <si>
-    <t>봉인편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼭두각시편</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행나무색의 첫사랑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EC%9D%80%ED%96%89%EB%82%98%EB%AC%B4%20%EC%83%89%20%EC%B2%AB%EC%82%AC%EB%9E%91</t>
-  </si>
-  <si>
-    <t>블랙 임팩트! 조직의 손이 닿는 순간</t>
-  </si>
-  <si>
-    <t>https://namu.wiki/w/%EB%B8%94%EB%9E%99%20%EC%9E%84%ED%8C%A9%ED%8A%B8!%20%EC%A1%B0%EC%A7%81%EC%9D%98%20%EC%86%90%EC%9D%B4%20%EB%8B%BF%EB%8A%94%20%EC%88%9C%EA%B0%84</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003847034</t>
-  </si>
-  <si>
-    <t>url_tving_kr1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_tving_kr2</t>
-  </si>
-  <si>
-    <t>url_tving_kr3</t>
-  </si>
-  <si>
-    <t>url_tving_kr4</t>
-  </si>
-  <si>
-    <t>url_tving_kr5</t>
-  </si>
-  <si>
-    <t>url_tving_kr6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_tving_jp1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_tving_jp2</t>
-  </si>
-  <si>
-    <t>url_tving_jp3</t>
-  </si>
-  <si>
-    <t>url_tving_jp4</t>
-  </si>
-  <si>
-    <t>url_tving_jp5</t>
-  </si>
-  <si>
-    <t>url_tving_jp6</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003847035</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003853541</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003853542</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003868491</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003871927</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003871928</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003875430</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003878420</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003878821</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003889119</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003889120</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003923617</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003923618</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003933450</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003934685</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003934686</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003937272</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003937273</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003938084</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003938903</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003943399</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003943400</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003923097</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003923098</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003627451</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003627452</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003926728</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003926992</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003926991</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003937390</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003937863</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003937864</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003940612</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003940613</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003940892</t>
-  </si>
-  <si>
-    <t>모여든 명탐정! 남대일 대 괴도키드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 번째 이야기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 번째 이야기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>세 번째 이야기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 이야기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001072396</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001072393</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001072394</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001072395</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001206692</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001206693</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001208823</t>
-  </si>
-  <si>
-    <t>격투게임의 함정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001215570</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001215571</t>
-  </si>
-  <si>
-    <t>수수께끼의 승객</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001220043</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001220044</t>
-  </si>
-  <si>
-    <t>뭉치의 수난시대</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001232996</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001245333</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001245334</t>
-  </si>
-  <si>
-    <t>범죄의 사라진 증거</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001259135</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001259136</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003962374</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003962377</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003974984</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003974985</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003979838</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003979839</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003982756</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003984151</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003984152</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004048119</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004048120</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004059511</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004070846</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004070847</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004082457</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004082458</t>
-  </si>
-  <si>
-    <t>본청의 형사 사랑 이야기 4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003747142</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003747143</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73823</t>
+  </si>
+  <si>
+    <t>검은 조직 10억 엔 강탈 사건</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73824</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73825</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73826</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73827</t>
+  </si>
+  <si>
+    <t>경기장 무차별 협박 사건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73828</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73829</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73834</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42214/73835</t>
+  </si>
+  <si>
+    <t>하늘을 나는 밀실, 쿠도 신이치의 첫 사건</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73860</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73861</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73865</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73866</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73867</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73877</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73878</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73879</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73880</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73881</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42215/73882</t>
+  </si>
+  <si>
+    <t>모여든 명탐정! 쿠도 신이치 vs 괴도 키드</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76320</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76321</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76322</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76323</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76326</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76327</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76328</t>
+  </si>
+  <si>
+    <t>격투 게임의 함정</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76330</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76331</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76334</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76335</t>
+  </si>
+  <si>
+    <t>겐타의 수난</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76346</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76356</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76357</t>
+  </si>
+  <si>
+    <t>범죄와 잃어버린 유품</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76368</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42328/76369</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41312/59475</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41312/59476</t>
+  </si>
+  <si>
+    <t>본청 형사의 사랑 이야기 4</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59493</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59494</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59499</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59500</t>
   </si>
   <si>
     <t>가리고 서두르고 생략</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003752144</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003752003</t>
-  </si>
-  <si>
-    <t>영어교사 vs 소년 명탐정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001512529</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001528026</t>
-  </si>
-  <si>
-    <t>차이나타운에 내리는 비의 데자뷰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001567642</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001567643</t>
-  </si>
-  <si>
-    <t>남도일의 뉴욕사건</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001580138</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001580139</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001595722</t>
-  </si>
-  <si>
-    <t>미로의 숲 속의 세모</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001595723</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E001611618</t>
-  </si>
-  <si>
-    <t>춤추는 경찰청 천만 명의 인질</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611404</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611405</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611440</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611441</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611444</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611445</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611446</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003972866</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003979357</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003983791</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003983792</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004046976</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004046975</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004047640</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004047641</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004051278</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004058273</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004058274</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004058275</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004060185</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004063844</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004066940</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004066943</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004079568</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E004083006</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611460</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611461</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003758314</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003758316</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003758315</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003758317</t>
-  </si>
-  <si>
-    <t>영화 현상소의 비밀</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611467</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611468</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611469</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611470</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611471</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611472</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611473</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611474</t>
-  </si>
-  <si>
-    <t>제 1부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제 2부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제 3부</t>
-  </si>
-  <si>
-    <t>제 4부</t>
-  </si>
-  <si>
-    <t>제 5부</t>
-  </si>
-  <si>
-    <t>검은 조직과의 정면 승부 보름달 두 개의 미스터리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611475</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611476</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611477</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611478</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611479</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611480</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611481</t>
-  </si>
-  <si>
-    <t>고등학교의 괴담</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611491</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611492</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611506</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611507</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611508</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003767876</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003767877</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003777894</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003777895</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59508</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59507</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59509</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59510</t>
+  </si>
+  <si>
+    <t>별과 담배 암호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59519</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59520</t>
   </si>
   <si>
     <t>기발한 저택에서의 대모험</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003530204</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003530205</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003533102</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003532803</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003535661</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003535663</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003538562</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003538563</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003541685</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003541739</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003544596</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003544597</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003548718</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003548719</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003551706</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003567305</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003571449</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003596774</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003596775</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003598677</t>
-  </si>
-  <si>
-    <t>은행잎 색 첫사랑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611517</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611518</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611621</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611622</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611623</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611624</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003611625</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003654375</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003654376</t>
-  </si>
-  <si>
-    <t>1부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2부</t>
-  </si>
-  <si>
-    <t>3부</t>
-  </si>
-  <si>
-    <t>4부</t>
-  </si>
-  <si>
-    <t>5부</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003660864</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003660865</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003664517</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003664518</t>
-  </si>
-  <si>
-    <t>https://www.tving.com/player/E003667470</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59531</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59532</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41313/59533</t>
+  </si>
+  <si>
+    <t>영어 선생님 VS 서쪽의 명탐정</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76246</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76247</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76253</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76254</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이나타운 비의 데자뷰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠도 신이치의 뉴욕 사건</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76255</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76256</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76257</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76258</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76259</t>
+  </si>
+  <si>
+    <t>미로 숲의 미츠히코</t>
+  </si>
+  <si>
+    <t>흔들리는 경시청_1,200만 명의 인질</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76268</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76269</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76270</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76271</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76274</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76275</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76276</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76290</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/42342/76291</t>
+  </si>
+  <si>
+    <t>토토현상소의 비밀</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51437</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51438</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51439</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51440</t>
+  </si>
+  <si>
+    <t>4대의 스포츠카</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51441</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51442</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51443</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51444</t>
+  </si>
+  <si>
+    <t>검은 조직과 정면 승부 보름달 뜬 밤 두 가지 미스터리</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51445</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51446</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51447</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51448</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51449</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51450</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51451</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51462</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51463</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51477</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51478</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40652/51479</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41305/59133</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41305/59134</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41305/59137</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41305/59138</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41305/59139</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41305/59140</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/41305/59141</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47123</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47124</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47125</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47126</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47119</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47120</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47121</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47127</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47128</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47131</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47132</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47143</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47153</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47154</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47170</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47171</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47177</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47178</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47179</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47180</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47181</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47182</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47183</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47192</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47193</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47194</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47195</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47198</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47199</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47200</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47214</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40351/47215</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40350/47165</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47221</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47222</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47223</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47224</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47225</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47226</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47227</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47228</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47229</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47230</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47231</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47232</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47233</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47234</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47235</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47246</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47247</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47261</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47262</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40352/47263</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40353/47291</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40353/47292</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40353/47295</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40353/47296</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40353/47297</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40353/47298</t>
+  </si>
+  <si>
+    <t>https://laftel.net/player/40353/47299</t>
   </si>
 </sst>
 </file>
@@ -2339,24 +2890,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5555EC3B-8B9E-4298-AAFA-EEF5D96D3E39}">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" hidden="1" customWidth="1"/>
+    <col min="2" max="7" width="10.625" customWidth="1"/>
+    <col min="13" max="31" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2379,61 +2926,97 @@
         <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
       <c r="N1" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="Q1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="R1" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="S1" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="T1" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="U1" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="V1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="W1" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="X1" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="Y1" t="s">
-        <v>208</v>
+        <v>180</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2447,70 +3030,106 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>395</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="U2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="V2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y2" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2524,70 +3143,106 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T3" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="U3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="V3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y3" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2601,70 +3256,106 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>400</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T4" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="U4" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="V4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y4" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2678,70 +3369,106 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T5" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="U5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="V5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y5" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2755,70 +3482,106 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T6" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="V6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y6" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2832,70 +3595,106 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T7" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="U7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="V7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2909,70 +3708,106 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T8" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="U8" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="V8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2986,70 +3821,106 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T9" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="U9" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="V9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3057,76 +3928,112 @@
         <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>413</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T10" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="U10" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="V10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3137,73 +4044,109 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>418</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T11" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="U11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="V11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3211,76 +4154,112 @@
         <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T12" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="U12" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="V12" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="W12" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="X12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3288,76 +4267,112 @@
         <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>423</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T13" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="U13" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="V13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3365,76 +4380,112 @@
         <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T14" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="U14" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="V14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y14" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3442,76 +4493,112 @@
         <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T15" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="U15" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="V15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y15" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3519,76 +4606,112 @@
         <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T16" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="U16" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="V16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y16" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3596,76 +4719,112 @@
         <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T17" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="U17" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="V17" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="W17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y17" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3673,76 +4832,112 @@
         <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G18">
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="M18" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q18" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R18" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S18" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T18" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="V18" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="W18" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="X18" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="Y18" t="s">
-        <v>243</v>
+        <v>215</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3750,76 +4945,112 @@
         <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>440</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="I19" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="J19" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M19" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="O19" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="P19" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="Q19" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="R19" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S19" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T19" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="U19" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="V19" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="W19" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="X19" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y19" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>532</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>533</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>534</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>535</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3827,76 +5058,112 @@
         <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="P20" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="Q20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T20" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="U20" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="V20" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="W20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y20" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>446</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>537</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3904,76 +5171,112 @@
         <v>226</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>448</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N21" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T21" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="U21" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="V21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X21" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y21" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>539</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>540</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3981,76 +5284,112 @@
         <v>230</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N22" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T22" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="U22" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="V22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y22" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4058,76 +5397,112 @@
         <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>453</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N23" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T23" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="U23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="V23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X23" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y23" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4135,76 +5510,112 @@
         <v>253</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E24" t="s">
-        <v>285</v>
+        <v>462</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T24" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="U24" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="V24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y24" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4212,76 +5623,112 @@
         <v>258</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N25" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T25" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="U25" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="V25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y25" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>545</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4289,76 +5736,112 @@
         <v>269</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>457</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N26" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T26" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="U26" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="V26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y26" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>564</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4366,76 +5849,112 @@
         <v>271</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>467</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T27" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="U27" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="V27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y27" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>466</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4443,76 +5962,112 @@
         <v>277</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>479</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N28" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="P28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T28" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="U28" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="V28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y28" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>546</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>547</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4520,76 +6075,112 @@
         <v>284</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>484</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="P29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T29" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="U29" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="V29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y29" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>549</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4597,76 +6188,112 @@
         <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>485</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N30" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="P30" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="Q30" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R30" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S30" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T30" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="U30" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="V30" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="W30" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X30" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y30" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>550</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>551</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4674,76 +6301,112 @@
         <v>289</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>491</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I31" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N31" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="P31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T31" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="U31" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="V31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y31" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>553</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>554</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4751,76 +6414,112 @@
         <v>304</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>492</v>
       </c>
       <c r="F32" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="G32">
         <v>4</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
+      <c r="H32" t="s">
+        <v>393</v>
+      </c>
+      <c r="I32" t="s">
+        <v>372</v>
+      </c>
+      <c r="J32" t="s">
+        <v>373</v>
+      </c>
+      <c r="K32" t="s">
+        <v>374</v>
       </c>
       <c r="L32" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M32" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N32" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="P32" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="Q32" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="R32" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S32" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T32" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="U32" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="V32" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="W32" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="X32" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y32" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>496</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>558</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4828,64 +6527,100 @@
         <v>307</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T33" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="U33" t="s">
-        <v>333</v>
+        <v>305</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4893,76 +6628,112 @@
         <v>309</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J34" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M34" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N34" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="P34" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="Q34" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R34" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S34" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T34" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="U34" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="V34" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="W34" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="X34" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y34" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>559</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4970,64 +6741,100 @@
         <v>312</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T35" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="U35" t="s">
-        <v>335</v>
+        <v>307</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5035,76 +6842,112 @@
         <v>329</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="O36" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="P36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T36" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="U36" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="V36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>562</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>563</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5112,76 +6955,112 @@
         <v>335</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>502</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N37" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="O37" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="P37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T37" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="U37" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="V37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y37" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>565</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>566</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5189,76 +7068,112 @@
         <v>338</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N38" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="O38" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="P38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T38" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="U38" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="V38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X38" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y38" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5266,76 +7181,112 @@
         <v>340</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I39" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N39" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="P39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T39" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="U39" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="V39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X39" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y39" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>570</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5343,76 +7294,112 @@
         <v>343</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I40" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N40" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="O40" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="P40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T40" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="U40" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="V40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X40" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y40" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>511</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5420,76 +7407,112 @@
         <v>345</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>512</v>
       </c>
       <c r="F41" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="G41">
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="I41" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="J41" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s">
+        <v>321</v>
+      </c>
+      <c r="M41" t="s">
+        <v>102</v>
+      </c>
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>324</v>
+      </c>
+      <c r="P41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>326</v>
+      </c>
+      <c r="R41" t="s">
+        <v>327</v>
+      </c>
+      <c r="S41" t="s">
+        <v>102</v>
+      </c>
+      <c r="T41" t="s">
         <v>349</v>
       </c>
-      <c r="M41" t="s">
-        <v>117</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="U41" t="s">
+        <v>350</v>
+      </c>
+      <c r="V41" t="s">
         <v>351</v>
       </c>
-      <c r="O41" t="s">
+      <c r="W41" t="s">
         <v>352</v>
       </c>
-      <c r="P41" t="s">
+      <c r="X41" t="s">
         <v>353</v>
       </c>
-      <c r="Q41" t="s">
-        <v>354</v>
-      </c>
-      <c r="R41" t="s">
-        <v>355</v>
-      </c>
-      <c r="S41" t="s">
-        <v>117</v>
-      </c>
-      <c r="T41" t="s">
-        <v>377</v>
-      </c>
-      <c r="U41" t="s">
-        <v>378</v>
-      </c>
-      <c r="V41" t="s">
-        <v>379</v>
-      </c>
-      <c r="W41" t="s">
-        <v>380</v>
-      </c>
-      <c r="X41" t="s">
-        <v>381</v>
-      </c>
       <c r="Y41" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>514</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>516</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5497,76 +7520,112 @@
         <v>346</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I42" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N42" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="O42" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="P42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T42" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="U42" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="V42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X42" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y42" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5574,76 +7633,112 @@
         <v>361</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I43" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N43" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="P43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T43" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="U43" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="V43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X43" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y43" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>580</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5651,76 +7746,112 @@
         <v>374</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>472</v>
       </c>
       <c r="F44" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I44" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T44" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="U44" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="V44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y44" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5728,76 +7859,112 @@
         <v>385</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="I45" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="J45" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="K45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N45" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="O45" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="P45" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Q45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T45" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="U45" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="V45" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="W45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y45" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>582</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>584</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5805,76 +7972,112 @@
         <v>394</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="E46" t="s">
-        <v>188</v>
+        <v>475</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="I46" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T46" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="U46" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="V46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X46" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y46" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5882,76 +8085,112 @@
         <v>421</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="F47" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N47" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="O47" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="P47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Q47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="S47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T47" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="U47" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="V47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="W47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="X47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="Y47" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>585</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>586</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5959,79 +8198,119 @@
         <v>425</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="G48">
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="I48" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="J48" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N48" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="P48" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="Q48" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="R48" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="S48" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="T48" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="U48" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="V48" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="W48" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="X48" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="Y48" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>531</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>589</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>590</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>591</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F24" r:id="rId1" location="s-6" xr:uid="{C0631B78-0A80-4F80-8E28-3779866E5072}"/>
+    <hyperlink ref="Z3" r:id="rId2" xr:uid="{AB0C2D17-8420-4C02-9889-CF8E835EF2B8}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{528AF958-3AB6-4816-90FF-9035102E6780}"/>
+    <hyperlink ref="Z26" r:id="rId4" xr:uid="{C00EBDBD-DC99-4341-9277-FF6B2CEC06CF}"/>
+    <hyperlink ref="AA29" r:id="rId5" xr:uid="{6193AB1B-1A32-4A25-AF59-73A550CE63F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/코난 에피소드 DB.xlsx
+++ b/코난 에피소드 DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Desktop\coNan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A85AE0D-5EC9-48B2-B1E5-E33453F33E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9363F6EB-855B-4EAD-B51E-C876A99BF113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACB9CB05-0E7C-45E1-B85D-02453C783157}"/>
   </bookViews>
@@ -2892,15 +2892,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5555EC3B-8B9E-4298-AAFA-EEF5D96D3E39}">
   <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.625" hidden="1" customWidth="1"/>
     <col min="2" max="7" width="10.625" customWidth="1"/>
-    <col min="13" max="31" width="10.625" customWidth="1"/>
+    <col min="13" max="25" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -3093,25 +3093,25 @@
         <v>102</v>
       </c>
       <c r="Z2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF2" t="s">
         <v>394</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>102</v>
       </c>
       <c r="AG2" t="s">
         <v>102</v>
@@ -3205,26 +3205,26 @@
       <c r="Y3" t="s">
         <v>102</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>102</v>
       </c>
       <c r="AG3" t="s">
         <v>102</v>
@@ -3319,28 +3319,28 @@
         <v>102</v>
       </c>
       <c r="Z4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s">
         <v>398</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AG4" t="s">
         <v>399</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>102</v>
       </c>
       <c r="AH4" t="s">
         <v>102</v>
@@ -3432,25 +3432,25 @@
         <v>102</v>
       </c>
       <c r="Z5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF5" t="s">
         <v>402</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>102</v>
       </c>
       <c r="AG5" t="s">
         <v>102</v>
@@ -3545,28 +3545,28 @@
         <v>102</v>
       </c>
       <c r="Z6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF6" t="s">
         <v>403</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AG6" t="s">
         <v>405</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>102</v>
       </c>
       <c r="AH6" t="s">
         <v>102</v>
@@ -3658,25 +3658,25 @@
         <v>102</v>
       </c>
       <c r="Z7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF7" t="s">
         <v>406</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>102</v>
       </c>
       <c r="AG7" t="s">
         <v>102</v>
@@ -3771,28 +3771,28 @@
         <v>102</v>
       </c>
       <c r="Z8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF8" t="s">
         <v>408</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AG8" t="s">
         <v>409</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>102</v>
       </c>
       <c r="AH8" t="s">
         <v>102</v>
@@ -3884,28 +3884,28 @@
         <v>102</v>
       </c>
       <c r="Z9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF9" t="s">
         <v>411</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AG9" t="s">
         <v>412</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>102</v>
       </c>
       <c r="AH9" t="s">
         <v>102</v>
@@ -3997,28 +3997,28 @@
         <v>102</v>
       </c>
       <c r="Z10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF10" t="s">
         <v>414</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AG10" t="s">
         <v>415</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>102</v>
       </c>
       <c r="AH10" t="s">
         <v>102</v>
@@ -4110,25 +4110,25 @@
         <v>102</v>
       </c>
       <c r="Z11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF11" t="s">
         <v>417</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>102</v>
       </c>
       <c r="AG11" t="s">
         <v>102</v>
@@ -4223,34 +4223,34 @@
         <v>102</v>
       </c>
       <c r="Z12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF12" t="s">
         <v>419</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AG12" t="s">
         <v>420</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AH12" t="s">
         <v>421</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AI12" t="s">
         <v>422</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>102</v>
       </c>
       <c r="AJ12" t="s">
         <v>102</v>
@@ -4336,28 +4336,28 @@
         <v>102</v>
       </c>
       <c r="Z13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF13" t="s">
         <v>424</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AG13" t="s">
         <v>425</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>102</v>
       </c>
       <c r="AH13" t="s">
         <v>102</v>
@@ -4449,28 +4449,28 @@
         <v>102</v>
       </c>
       <c r="Z14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF14" t="s">
         <v>426</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AG14" t="s">
         <v>427</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>102</v>
       </c>
       <c r="AH14" t="s">
         <v>102</v>
@@ -4562,28 +4562,28 @@
         <v>102</v>
       </c>
       <c r="Z15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF15" t="s">
         <v>429</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AG15" t="s">
         <v>430</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>102</v>
       </c>
       <c r="AH15" t="s">
         <v>102</v>
@@ -4675,28 +4675,28 @@
         <v>102</v>
       </c>
       <c r="Z16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF16" t="s">
         <v>460</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AG16" t="s">
         <v>461</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>102</v>
       </c>
       <c r="AH16" t="s">
         <v>102</v>
@@ -4788,31 +4788,31 @@
         <v>102</v>
       </c>
       <c r="Z17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF17" t="s">
         <v>431</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AG17" t="s">
         <v>432</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AH17" t="s">
         <v>433</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>102</v>
       </c>
       <c r="AI17" t="s">
         <v>102</v>
@@ -4901,40 +4901,40 @@
         <v>215</v>
       </c>
       <c r="Z18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF18" t="s">
         <v>434</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AG18" t="s">
         <v>435</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AH18" t="s">
         <v>436</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AI18" t="s">
         <v>437</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AJ18" t="s">
         <v>438</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AK18" t="s">
         <v>439</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -5014,34 +5014,34 @@
         <v>102</v>
       </c>
       <c r="Z19" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>533</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>534</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>535</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF19" t="s">
         <v>441</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AG19" t="s">
         <v>442</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AH19" t="s">
         <v>443</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AI19" t="s">
         <v>444</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>533</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>534</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>535</v>
       </c>
       <c r="AJ19" t="s">
         <v>102</v>
@@ -5127,31 +5127,31 @@
         <v>102</v>
       </c>
       <c r="Z20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF20" t="s">
         <v>445</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AG20" t="s">
         <v>446</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AH20" t="s">
         <v>447</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>536</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>537</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>538</v>
       </c>
       <c r="AI20" t="s">
         <v>102</v>
@@ -5240,28 +5240,28 @@
         <v>102</v>
       </c>
       <c r="Z21" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF21" t="s">
         <v>449</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AG21" t="s">
         <v>450</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>539</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>540</v>
       </c>
       <c r="AH21" t="s">
         <v>102</v>
@@ -5353,28 +5353,28 @@
         <v>102</v>
       </c>
       <c r="Z22" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF22" t="s">
         <v>451</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AG22" t="s">
         <v>452</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>541</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>542</v>
       </c>
       <c r="AH22" t="s">
         <v>102</v>
@@ -5466,25 +5466,25 @@
         <v>102</v>
       </c>
       <c r="Z23" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF23" t="s">
         <v>454</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>543</v>
       </c>
       <c r="AG23" t="s">
         <v>102</v>
@@ -5579,28 +5579,28 @@
         <v>102</v>
       </c>
       <c r="Z24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF24" t="s">
         <v>463</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AG24" t="s">
         <v>464</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>102</v>
       </c>
       <c r="AH24" t="s">
         <v>102</v>
@@ -5692,28 +5692,28 @@
         <v>102</v>
       </c>
       <c r="Z25" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF25" t="s">
         <v>455</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AG25" t="s">
         <v>456</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>545</v>
       </c>
       <c r="AH25" t="s">
         <v>102</v>
@@ -5804,29 +5804,29 @@
       <c r="Y26" t="s">
         <v>102</v>
       </c>
-      <c r="Z26" s="2" t="s">
+      <c r="Z26" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF26" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AG26" t="s">
         <v>459</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>564</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>564</v>
       </c>
       <c r="AH26" t="s">
         <v>102</v>
@@ -5918,28 +5918,28 @@
         <v>102</v>
       </c>
       <c r="Z27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF27" t="s">
         <v>465</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AG27" t="s">
         <v>466</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>102</v>
       </c>
       <c r="AH27" t="s">
         <v>102</v>
@@ -6031,28 +6031,28 @@
         <v>102</v>
       </c>
       <c r="Z28" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF28" t="s">
         <v>480</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AG28" t="s">
         <v>481</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>546</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>547</v>
       </c>
       <c r="AH28" t="s">
         <v>102</v>
@@ -6144,28 +6144,28 @@
         <v>102</v>
       </c>
       <c r="Z29" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF29" t="s">
         <v>482</v>
       </c>
-      <c r="AA29" s="2" t="s">
+      <c r="AG29" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>548</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>549</v>
       </c>
       <c r="AH29" t="s">
         <v>102</v>
@@ -6257,31 +6257,31 @@
         <v>102</v>
       </c>
       <c r="Z30" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>552</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF30" t="s">
         <v>486</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AG30" t="s">
         <v>487</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AH30" t="s">
         <v>488</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>550</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>551</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>552</v>
       </c>
       <c r="AI30" t="s">
         <v>102</v>
@@ -6370,28 +6370,28 @@
         <v>102</v>
       </c>
       <c r="Z31" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>554</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF31" t="s">
         <v>489</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AG31" t="s">
         <v>490</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>553</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>554</v>
       </c>
       <c r="AH31" t="s">
         <v>102</v>
@@ -6483,34 +6483,34 @@
         <v>102</v>
       </c>
       <c r="Z32" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF32" t="s">
         <v>493</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AG32" t="s">
         <v>494</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AH32" t="s">
         <v>495</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AI32" t="s">
         <v>496</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>555</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>558</v>
       </c>
       <c r="AJ32" t="s">
         <v>102</v>
@@ -6584,28 +6584,28 @@
         <v>305</v>
       </c>
       <c r="Z33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF33" t="s">
         <v>469</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AG33" t="s">
         <v>468</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>102</v>
       </c>
       <c r="AH33" t="s">
         <v>102</v>
@@ -6697,31 +6697,31 @@
         <v>102</v>
       </c>
       <c r="Z34" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF34" t="s">
         <v>497</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AG34" t="s">
         <v>498</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AH34" t="s">
         <v>499</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>560</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>561</v>
       </c>
       <c r="AI34" t="s">
         <v>102</v>
@@ -6798,28 +6798,28 @@
         <v>307</v>
       </c>
       <c r="Z35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF35" t="s">
         <v>470</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AG35" t="s">
         <v>471</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>102</v>
       </c>
       <c r="AH35" t="s">
         <v>102</v>
@@ -6911,28 +6911,28 @@
         <v>102</v>
       </c>
       <c r="Z36" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF36" t="s">
         <v>500</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AG36" t="s">
         <v>501</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>562</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>563</v>
       </c>
       <c r="AH36" t="s">
         <v>102</v>
@@ -7024,28 +7024,28 @@
         <v>102</v>
       </c>
       <c r="Z37" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF37" t="s">
         <v>503</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AG37" t="s">
         <v>504</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>565</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>566</v>
       </c>
       <c r="AH37" t="s">
         <v>102</v>
@@ -7137,28 +7137,28 @@
         <v>102</v>
       </c>
       <c r="Z38" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF38" t="s">
         <v>505</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AG38" t="s">
         <v>506</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>568</v>
       </c>
       <c r="AH38" t="s">
         <v>102</v>
@@ -7250,28 +7250,28 @@
         <v>102</v>
       </c>
       <c r="Z39" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF39" t="s">
         <v>508</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AG39" t="s">
         <v>509</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>569</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>570</v>
       </c>
       <c r="AH39" t="s">
         <v>102</v>
@@ -7363,28 +7363,28 @@
         <v>102</v>
       </c>
       <c r="Z40" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF40" t="s">
         <v>510</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AG40" t="s">
         <v>511</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>571</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>572</v>
       </c>
       <c r="AH40" t="s">
         <v>102</v>
@@ -7476,37 +7476,37 @@
         <v>102</v>
       </c>
       <c r="Z41" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF41" t="s">
         <v>513</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AG41" t="s">
         <v>514</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AH41" t="s">
         <v>515</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AI41" t="s">
         <v>516</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AJ41" t="s">
         <v>517</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>573</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>574</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>575</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>576</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>577</v>
       </c>
       <c r="AK41" t="s">
         <v>102</v>
@@ -7589,28 +7589,28 @@
         <v>102</v>
       </c>
       <c r="Z42" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF42" t="s">
         <v>518</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AG42" t="s">
         <v>519</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>578</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>579</v>
       </c>
       <c r="AH42" t="s">
         <v>102</v>
@@ -7702,28 +7702,28 @@
         <v>102</v>
       </c>
       <c r="Z43" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF43" t="s">
         <v>520</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AG43" t="s">
         <v>521</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>580</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>581</v>
       </c>
       <c r="AH43" t="s">
         <v>102</v>
@@ -7815,28 +7815,28 @@
         <v>102</v>
       </c>
       <c r="Z44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF44" t="s">
         <v>473</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AG44" t="s">
         <v>474</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>102</v>
       </c>
       <c r="AH44" t="s">
         <v>102</v>
@@ -7928,31 +7928,31 @@
         <v>102</v>
       </c>
       <c r="Z45" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF45" t="s">
         <v>522</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AG45" t="s">
         <v>523</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AH45" t="s">
         <v>524</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>582</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>583</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>584</v>
       </c>
       <c r="AI45" t="s">
         <v>102</v>
@@ -8041,31 +8041,31 @@
         <v>102</v>
       </c>
       <c r="Z46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF46" t="s">
         <v>476</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AG46" t="s">
         <v>477</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AH46" t="s">
         <v>478</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>102</v>
       </c>
       <c r="AI46" t="s">
         <v>102</v>
@@ -8154,28 +8154,28 @@
         <v>102</v>
       </c>
       <c r="Z47" t="s">
+        <v>585</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>586</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF47" t="s">
         <v>525</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AG47" t="s">
         <v>526</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>585</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>586</v>
       </c>
       <c r="AH47" t="s">
         <v>102</v>
@@ -8267,37 +8267,37 @@
         <v>102</v>
       </c>
       <c r="Z48" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>589</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>590</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>591</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF48" t="s">
         <v>527</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AG48" t="s">
         <v>528</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AH48" t="s">
         <v>529</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="AI48" t="s">
         <v>530</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AJ48" t="s">
         <v>531</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>587</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>588</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>589</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>590</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>591</v>
       </c>
       <c r="AK48" t="s">
         <v>102</v>
@@ -8307,10 +8307,10 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F24" r:id="rId1" location="s-6" xr:uid="{C0631B78-0A80-4F80-8E28-3779866E5072}"/>
-    <hyperlink ref="Z3" r:id="rId2" xr:uid="{AB0C2D17-8420-4C02-9889-CF8E835EF2B8}"/>
+    <hyperlink ref="AF3" r:id="rId2" xr:uid="{AB0C2D17-8420-4C02-9889-CF8E835EF2B8}"/>
     <hyperlink ref="F10" r:id="rId3" xr:uid="{528AF958-3AB6-4816-90FF-9035102E6780}"/>
-    <hyperlink ref="Z26" r:id="rId4" xr:uid="{C00EBDBD-DC99-4341-9277-FF6B2CEC06CF}"/>
-    <hyperlink ref="AA29" r:id="rId5" xr:uid="{6193AB1B-1A32-4A25-AF59-73A550CE63F8}"/>
+    <hyperlink ref="AF26" r:id="rId4" xr:uid="{C00EBDBD-DC99-4341-9277-FF6B2CEC06CF}"/>
+    <hyperlink ref="AG29" r:id="rId5" xr:uid="{6193AB1B-1A32-4A25-AF59-73A550CE63F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/코난 에피소드 DB.xlsx
+++ b/코난 에피소드 DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Desktop\coNan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE5851-D179-4107-86C6-587421D3E835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D091B1C-7E3E-422B-9B76-34088A8F6398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACB9CB05-0E7C-45E1-B85D-02453C783157}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="600">
   <si>
     <t>1기 1화</t>
   </si>
@@ -1895,59 +1895,6 @@
     <t>https://laftel.net/player/40353/47299</t>
   </si>
   <si>
-    <t>url_serieson_jp6</t>
-  </si>
-  <si>
-    <t>url_serieson_jp1</t>
-  </si>
-  <si>
-    <t>url_serieson_kr1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_serieson_kr2</t>
-  </si>
-  <si>
-    <t>url_serieson_kr3</t>
-  </si>
-  <si>
-    <t>url_serieson_kr4</t>
-  </si>
-  <si>
-    <t>url_serieson_kr5</t>
-  </si>
-  <si>
-    <t>url_serieson_kr6</t>
-  </si>
-  <si>
-    <t>url_serieson_jp2</t>
-  </si>
-  <si>
-    <t>url_serieson_jp3</t>
-  </si>
-  <si>
-    <t>url_serieson_jp4</t>
-  </si>
-  <si>
-    <t>url_serieson_jp5</t>
-  </si>
-  <si>
-    <t>plot_kr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>plot_jp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foreshadowing_kr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foreshadowing_jp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>리마스터</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1967,3210 +1914,21 @@
     <t>https://www.tving.com/contents/M000366879</t>
   </si>
   <si>
-    <t>guide205</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://me2.do/5FhBd59W</t>
-  </si>
-  <si>
-    <t>https://me2.do/xSF89mXP</t>
-  </si>
-  <si>
-    <t>https://me2.do/xzxigV9B</t>
-  </si>
-  <si>
-    <t>https://me2.do/5EUWehgM</t>
-  </si>
-  <si>
-    <t>https://me2.do/xOxvesNf</t>
-  </si>
-  <si>
-    <t>https://me2.do/GXA0LmJm</t>
-  </si>
-  <si>
-    <t>https://me2.do/x3jbkyvY</t>
-  </si>
-  <si>
-    <t>https://me2.do/FqWlvVlK</t>
-  </si>
-  <si>
-    <t>https://me2.do/GZZ0YMv9</t>
-  </si>
-  <si>
-    <t>https://me2.do/FBeQVEBx</t>
-  </si>
-  <si>
-    <t>https://me2.do/5XJUz9ik</t>
-  </si>
-  <si>
-    <t>https://me2.do/FbOubRLb</t>
-  </si>
-  <si>
-    <t>https://me2.do/FEUriJkQ</t>
-  </si>
-  <si>
-    <t>https://me2.do/GEX2wk8g</t>
-  </si>
-  <si>
-    <t>https://me2.do/G65nd5No</t>
-  </si>
-  <si>
     <t>SPECIAL EPISODE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>핫토리 헤이지의 초대로 오사카로 여행을 간 코난과 란, 그리고 코고로.
-이들을 환대하는 핫토리 부자 덕분에 세 사람은 경찰인 사카타를 운전기사로 부리는 호사를 누리며 편하게 관광을 즐긴다.
-그런 와중, 서늘한 시선을 느낀 란은 자꾸 주변을 의식하게 되는데…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://me2.do/53lXolt9</t>
-  </si>
-  <si>
-    <t>https://me2.do/G2EHWEsi</t>
-  </si>
-  <si>
-    <t>https://me2.do/54LJ76el</t>
-  </si>
-  <si>
-    <t>https://me2.do/5ZJOBSPs</t>
-  </si>
-  <si>
-    <t>https://me2.do/54LJ7KK6</t>
-  </si>
-  <si>
-    <t>https://me2.do/G7VyUNMG</t>
-  </si>
-  <si>
-    <t>https://me2.do/F6lJ6QOL</t>
-  </si>
-  <si>
-    <t>"월드컵의 여운을 안고 새해 첫날 국립 경기장에 방문해 축구 결승전을 보던 코난과 어린이 탐정단.
-조직의 눈에 띌까 가만히 앉아만 있는 하이바라를 보고 코난은 경기 자체를 즐겨 보라며 앞으로 이끈다.
-그런데 그런 그들의 눈앞에 굴러온 축구공이 총알에 맞아 터지는 사건이 발생하고 같은 시각 축구 경기를 중계하는 방송국으로 협박 전화가 걸려 오는데..."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://me2.do/xa5CQVgh</t>
-  </si>
-  <si>
-    <t>https://me2.do/5Fml4UUB</t>
-  </si>
-  <si>
-    <t>https://me2.do/xQeoYFEC</t>
-  </si>
-  <si>
-    <t>"아가사 박사와 캠핑을 떠난 코난과 어린이 탐정단.
-그들은 돌아오는 길에 숲속의 서양식 성을 발견하고, 성 주인의 초대를 받아 성에서 하룻밤을 묵게 된다.
-그런데 어쩐지 수상한 비밀이 많은 듯한 성과 그 가족.
-설상가상으로 코난은 선대 성 주인이 남겼다는 수수께끼를 풀기 위해 성을 탐색하던 도중 사라지고 마는데..."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://me2.do/5S9B7YaY</t>
-  </si>
-  <si>
-    <t>코난의 반에 하이바라 아이라는 특이한 이름을 가진 소녀가 전학을 왔다.
-코난의 옆자리에 앉은 하이바라는, 다른 아이들에게는 차갑게 대하면서도 간혹 코난을 의식하는 듯한 태도를 보인다.
-그런 하이바라와 친하게 지내고자 어린이 탐정단에 들어올 것을 아유미가 권유하는데…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행의 주차장에서 현금 수송차를 강탈하고 있는 모습을 목격한 코난.
-터보 엔진이 달린 스케이트보드를 타고 맹렬히 추격하지만 아쉽게 현장에서 범인들의 도주 차량을 놓치고 만다.
-단순한 강도 사건으로 보고 수사를 진행하는 경찰과 이에 동의하는 코고로.
-하지만 코난의 감은 이보다 더 복잡한 내막이 있는 것 같다고 말하는데…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>"코고로는 소노코의 부탁으로 스즈키 가문의 가보 블랙 스타를 괴도 1412호의 손에서 지키기 위해 박물관을 방문한다.
-하지만 그는 괴도 1412호가 보낸 예고장의 의미를 알아내지 못하고 엉뚱한 해석만 내놓았다.
-한편 예고장의 의미를 알아낸 코난은 늦은 밤 혼자 그 장소로 향한다.
-예고한 장소에 나타난 괴도 키드는 일부러 경찰을 모두 불러 모은 뒤 퀸 세리자베스호에서 진짜 블랙 스타를 가져가겠다는 예고장을 남긴 채 사라지는데..."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>셜록 홈즈 마니아 투어에 참가한 코난 일행은 한 펜션에 도착한다.
-펜션의 사장은 테스트를 통과한 사람만 주홍색 연구의 초판본이 걸린 퀴즈에 참가할 수 있다고 이야기한다.
-참가자들은 테스트를 통과하기 위해 열심히 문제를 풀었지만 아무리 기다려도 사장은 나타나지 않았다.
-그렇게 새벽까지 사장을 기다리던 코난 일행은 차와 함께 절벽 밑으로 떨어지는 그를 목격하는데…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>"만텐도의 신작 게임 발표회에 간 코난은 그곳에서 검은 옷을 입은 사내들의 동료 데킬라를 발견한다.
-드디어 진과 워커의 근거지를 찾을 단서를 잡은 코난은 데킬라의 뒤를 밟는다.
-그런데 데킬라가 들어간 화장실이 폭발하며 그가 사망하고 만다.
-코난은 폭발 현장에서 발견된 가방을 보고 살인 사건이라 확신하는데..."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>"쿠도 신이치를 만나겠다면서 갑자기 핫토리 헤이지가 탐정 사무소에 찾아온다.
-그때 사무소에 찾아온 여성의 의뢰로 코고로는 의뢰인의 집에 가게 됐는데 핫토리도 동행하기로 한다.
-그런데 의뢰인의 남편을 만나기 위해 서재로 간 그들은 사망한 그녀의 남편을 발견한다.
-피해자가 독살됐다는 사실을 눈치챈 코난과 핫토리가 한창 현장을 살펴보고 있을 때 갑자기 코난이 쓰러지고 마는데..."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>"어느 날 갑자기 코난의 엄마라고 주장하는 사람이 탐정 사무소에 찾아와 코난을 데려간다.
-코난은 검은 조직의 사내들과 한패인 듯한 그녀의 손에서 도망쳤다가 다시 붙잡혀 정신을 잃고 만다.
-그가 정신을 차린 곳은 낡은 집의 2층이었데, 그곳에는 코난을 납치한 여자뿐만 아니라 가면을 쓴 남자도 함께 있었다.
-내일 거래 상대를 죽일 거라는 그들의 대화를 들은 코난은 살인을 막기 위해 거래 장소를 알아낼 단서를 모으는데..."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://me2.do/IFgKceyb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>케이지란</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의뢰를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>받은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코고로는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>츠키카게섬으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>향한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그런데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의뢰인은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가족을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>살해하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분신자살한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피아니스트라고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코고로는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>촌장에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이야기를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회관에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한창</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기다리고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피아노</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월광이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>울려</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퍼지더니</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>촌장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선거</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후보자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>살해된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>채</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>발견된다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그리고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피해자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쓰러져</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있었던</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피아노에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수상한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>악보가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나오는데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>..."</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>옷을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>먹인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>약</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때문에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정신을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잃었다가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>깨어난</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신이치는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어째서인지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어린아이가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>되어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있었다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신이치는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아가사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박사를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찾아가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자초지종을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명하는데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그때</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>갑작스럽게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>란과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞닥트리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자신을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에도가와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코난이라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소개한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뒤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>얻기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탐정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사무소에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코난은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코고로를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>딸이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유괴됐다는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그런데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>범인을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목격한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집사의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증언이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어딘가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수상한데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고등학생</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탐정으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날리는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신이치는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소꿉친구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>란과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>함께</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>트로피컬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>랜드에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그곳에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>두</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사람은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>친구끼리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>온</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일행과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>옷을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수상한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자들과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스터를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>된다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그런데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>달리는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스터에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>절단되어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사망한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신이치는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사고가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아니라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>살인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사건이라고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하는데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF777777"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아가사 박사가 경품에 당첨돼 여행길에 오른 어린이 탐정단과 코난, 란, 그리고 코고로.
-코난의 자는 얼굴을 보고 란은 문득 1년 전, 신이치와 LA로 여행 간 것을 떠올린다.
-신이치의 부모님의 초대로 LA로 가는 도중에 비행기에서 살인 사건이 벌어지는데…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://me2.do/52RMD4Wz</t>
-  </si>
-  <si>
-    <t>https://me2.do/x7n82lX5</t>
-  </si>
-  <si>
-    <t>https://me2.do/F1rLQTMC</t>
-  </si>
-  <si>
-    <t>https://me2.do/xzxig9YR</t>
-  </si>
-  <si>
-    <t>https://me2.do/GMmqscgR</t>
-  </si>
-  <si>
-    <t>"하이바라가 하굣길에 길가에 세워져 있는 진의 검은 스포츠카를 발견한다.
-기회라고 생각한 코난은 발신기와 도청기를 설치해 추적하다가 그들의 암살 계획을 듣게 된다.
-암살을 저지하기 위해서 코난은 암살이 이루어질 하이도 시티 호텔로 향하는데..."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>코난과 어린이 탐정단은 아가사 박사와 함께 캠핑을 떠났다.
-땔감을 주우러 숲에 들어갔다가 종유굴을 발견한 미츠히코, 아유미, 겐타는 코난의 만류에도 동굴로 들어간다.
-그런데 동굴 안에서 남자 세 명이 시체를 옮기는 걸 보게 된다.
-그때 한 남자가 쏜 총에 코난이 맞게 되고 어린이 탐정단과 코난은 남자들에게 쫓기게 되는데…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://me2.do/5VmTBcAH</t>
-  </si>
-  <si>
-    <t>https://me2.do/xrSyUl4L</t>
-  </si>
-  <si>
-    <t>https://me2.do/Gct4vPDx</t>
-  </si>
-  <si>
-    <t>https://me2.do/5Kb8Nyze</t>
-  </si>
-  <si>
-    <t>https://me2.do/xQeoYHWF</t>
-  </si>
-  <si>
-    <t>https://me2.do/G0DIKFS6</t>
+    <t>https://www.tving.com/contents/M000377288</t>
+  </si>
+  <si>
+    <t>https://www.tving.com/contents/M000377287</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5362,22 +2120,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF777777"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF777777"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF777777"/>
-      <name val="맑은 고딕"/>
-      <family val="1"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -5812,7 +2556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5825,16 +2569,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6214,23 +2955,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5555EC3B-8B9E-4298-AAFA-EEF5D96D3E39}">
-  <dimension ref="A1:BC48"/>
+  <dimension ref="A1:AZ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.625" hidden="1" customWidth="1"/>
     <col min="2" max="7" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
-    <col min="14" max="17" width="10.625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0.75" hidden="1" customWidth="1"/>
-    <col min="19" max="37" width="10.625" hidden="1" customWidth="1"/>
+    <col min="13" max="37" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -6342,59 +3080,9 @@
       <c r="AK1" t="s">
         <v>391</v>
       </c>
-      <c r="AL1" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>594</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>597</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>598</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>592</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>600</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>601</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>591</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>606</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>613</v>
-      </c>
+      <c r="AZ1" s="3"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6506,47 +3194,10 @@
       <c r="AK2" t="s">
         <v>101</v>
       </c>
-      <c r="AL2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>654</v>
-      </c>
+      <c r="AR2" s="2"/>
+      <c r="AY2" s="6"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6658,47 +3309,10 @@
       <c r="AK3" t="s">
         <v>101</v>
       </c>
-      <c r="AL3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>653</v>
-      </c>
+      <c r="AR3" s="2"/>
+      <c r="AY3" s="5"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6727,7 +3341,7 @@
         <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="K4" t="s">
         <v>67</v>
@@ -6745,7 +3359,7 @@
         <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="Q4" t="s">
         <v>101</v>
@@ -6763,7 +3377,7 @@
         <v>182</v>
       </c>
       <c r="V4" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="W4" t="s">
         <v>101</v>
@@ -6781,7 +3395,7 @@
         <v>101</v>
       </c>
       <c r="AB4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AC4" t="s">
         <v>101</v>
@@ -6799,7 +3413,7 @@
         <v>398</v>
       </c>
       <c r="AH4" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AI4" t="s">
         <v>101</v>
@@ -6810,41 +3424,13 @@
       <c r="AK4" t="s">
         <v>101</v>
       </c>
-      <c r="AL4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>652</v>
-      </c>
+      <c r="AN4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AY4" s="4"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6956,35 +3542,9 @@
       <c r="AK5" t="s">
         <v>101</v>
       </c>
-      <c r="AL5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY5" s="7" t="s">
-        <v>650</v>
-      </c>
+      <c r="AR5" s="2"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7096,38 +3656,10 @@
       <c r="AK6" t="s">
         <v>101</v>
       </c>
-      <c r="AL6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY6" s="7" t="s">
-        <v>649</v>
-      </c>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7239,35 +3771,9 @@
       <c r="AK7" t="s">
         <v>101</v>
       </c>
-      <c r="AL7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY7" s="7" t="s">
-        <v>648</v>
-      </c>
+      <c r="AR7" s="2"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7379,38 +3885,10 @@
       <c r="AK8" t="s">
         <v>101</v>
       </c>
-      <c r="AL8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY8" s="7" t="s">
-        <v>647</v>
-      </c>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7439,7 +3917,7 @@
         <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="K9" t="s">
         <v>67</v>
@@ -7457,7 +3935,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>598</v>
       </c>
       <c r="Q9" t="s">
         <v>101</v>
@@ -7475,7 +3953,7 @@
         <v>190</v>
       </c>
       <c r="V9" t="s">
-        <v>101</v>
+        <v>599</v>
       </c>
       <c r="W9" t="s">
         <v>101</v>
@@ -7522,41 +4000,12 @@
       <c r="AK9" t="s">
         <v>101</v>
       </c>
-      <c r="AL9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="AT9" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY9" s="7" t="s">
-        <v>646</v>
-      </c>
+      <c r="AN9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7564,7 +4013,7 @@
         <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -7668,38 +4117,10 @@
       <c r="AK10" t="s">
         <v>101</v>
       </c>
-      <c r="AL10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY10" s="7" t="s">
-        <v>630</v>
-      </c>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7811,35 +4232,9 @@
       <c r="AK11" t="s">
         <v>101</v>
       </c>
-      <c r="AL11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR11" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY11" s="7" t="s">
-        <v>645</v>
-      </c>
+      <c r="AR11" s="2"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7951,44 +4346,12 @@
       <c r="AK12" t="s">
         <v>101</v>
       </c>
-      <c r="AL12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR12" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="AS12" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="AT12" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="AU12" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY12" s="7" t="s">
-        <v>644</v>
-      </c>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8100,38 +4463,10 @@
       <c r="AK13" t="s">
         <v>101</v>
       </c>
-      <c r="AL13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR13" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="AS13" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY13" s="7" t="s">
-        <v>638</v>
-      </c>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8243,38 +4578,10 @@
       <c r="AK14" t="s">
         <v>101</v>
       </c>
-      <c r="AL14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR14" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AS14" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY14" s="7" t="s">
-        <v>642</v>
-      </c>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8386,38 +4693,10 @@
       <c r="AK15" t="s">
         <v>101</v>
       </c>
-      <c r="AL15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR15" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="AS15" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY15" s="7" t="s">
-        <v>655</v>
-      </c>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8529,26 +4808,10 @@
       <c r="AK16" t="s">
         <v>101</v>
       </c>
-      <c r="AL16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>101</v>
-      </c>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8660,41 +4923,11 @@
       <c r="AK17" t="s">
         <v>101</v>
       </c>
-      <c r="AL17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR17" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="AS17" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="AT17" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY17" s="7" t="s">
-        <v>661</v>
-      </c>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8806,47 +5039,14 @@
       <c r="AK18" t="s">
         <v>438</v>
       </c>
-      <c r="AL18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="AV18" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AW18" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="AY18" s="7" t="s">
-        <v>662</v>
-      </c>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8958,9 +5158,12 @@
       <c r="AK19" t="s">
         <v>101</v>
       </c>
-      <c r="AY19" s="7"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9072,9 +5275,8 @@
       <c r="AK20" t="s">
         <v>101</v>
       </c>
-      <c r="AY20" s="7"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9186,9 +5388,8 @@
       <c r="AK21" t="s">
         <v>101</v>
       </c>
-      <c r="AY21" s="7"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9300,9 +5501,8 @@
       <c r="AK22" t="s">
         <v>101</v>
       </c>
-      <c r="AY22" s="7"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9414,9 +5614,8 @@
       <c r="AK23" t="s">
         <v>101</v>
       </c>
-      <c r="AY23" s="7"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9528,9 +5727,8 @@
       <c r="AK24" t="s">
         <v>101</v>
       </c>
-      <c r="AY24" s="7"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9642,9 +5840,8 @@
       <c r="AK25" t="s">
         <v>101</v>
       </c>
-      <c r="AY25" s="7"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9756,9 +5953,8 @@
       <c r="AK26" t="s">
         <v>101</v>
       </c>
-      <c r="AY26" s="7"/>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9870,9 +6066,8 @@
       <c r="AK27" t="s">
         <v>101</v>
       </c>
-      <c r="AY27" s="7"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9984,9 +6179,8 @@
       <c r="AK28" t="s">
         <v>101</v>
       </c>
-      <c r="AY28" s="7"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10098,9 +6292,8 @@
       <c r="AK29" t="s">
         <v>101</v>
       </c>
-      <c r="AY29" s="7"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10213,7 +6406,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10326,7 +6519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12231,44 +8424,6 @@
     <hyperlink ref="F10" r:id="rId3" xr:uid="{528AF958-3AB6-4816-90FF-9035102E6780}"/>
     <hyperlink ref="AF26" r:id="rId4" xr:uid="{C00EBDBD-DC99-4341-9277-FF6B2CEC06CF}"/>
     <hyperlink ref="AG29" r:id="rId5" xr:uid="{6193AB1B-1A32-4A25-AF59-73A550CE63F8}"/>
-    <hyperlink ref="AR2" r:id="rId6" xr:uid="{3B645723-9114-4DB4-83D2-F33EE2E8B799}"/>
-    <hyperlink ref="AR3" r:id="rId7" xr:uid="{A06A6C3E-E8E6-4C40-9D20-677E8315275B}"/>
-    <hyperlink ref="AR4" r:id="rId8" xr:uid="{D7AE4878-FCFC-4D1D-A202-644D4ED80FBC}"/>
-    <hyperlink ref="AS4" r:id="rId9" xr:uid="{93D5C8D1-1922-4FE8-8DC8-E5A0B800F80C}"/>
-    <hyperlink ref="AR5" r:id="rId10" xr:uid="{1F9CF85B-A35B-4568-A487-72B85B43BC3D}"/>
-    <hyperlink ref="AR6" r:id="rId11" xr:uid="{3F90860D-535B-420E-A0DD-B0EEEE30EC7D}"/>
-    <hyperlink ref="AS6" r:id="rId12" xr:uid="{BFCFDAF4-A6CC-4D31-9EF2-160CDF4407E2}"/>
-    <hyperlink ref="AR7" r:id="rId13" xr:uid="{D83F80D9-789D-45C0-87A9-278F1DF830B2}"/>
-    <hyperlink ref="AR8" r:id="rId14" xr:uid="{E22D8CD7-0547-41EF-904F-802BA5A234E4}"/>
-    <hyperlink ref="AS8" r:id="rId15" xr:uid="{CAF38B3C-E637-4029-A858-D44DF774A710}"/>
-    <hyperlink ref="AR9" r:id="rId16" xr:uid="{4B16CB05-10C5-4B75-B041-E5ED6EC97850}"/>
-    <hyperlink ref="AS9" r:id="rId17" xr:uid="{2F9AB379-A6B4-4656-AB48-230B4BBF0020}"/>
-    <hyperlink ref="AT4" r:id="rId18" xr:uid="{BB55DC38-E74E-4479-9A5E-CE7CD06AE1A3}"/>
-    <hyperlink ref="AN4" r:id="rId19" xr:uid="{C46C4E58-1392-48EE-BEB7-8B6E7B253A66}"/>
-    <hyperlink ref="AT9" r:id="rId20" xr:uid="{4848532B-8AF8-492C-827C-FA007662B90F}"/>
-    <hyperlink ref="AN9" r:id="rId21" xr:uid="{E4A326D4-854A-4EC4-9363-BA1FA628AB34}"/>
-    <hyperlink ref="AR10" r:id="rId22" xr:uid="{C421F8C0-0CB3-4C3A-A926-AFC9FF8104A8}"/>
-    <hyperlink ref="AS10" r:id="rId23" xr:uid="{33532167-521F-4335-8C97-5B0C8369ED15}"/>
-    <hyperlink ref="AR11" r:id="rId24" xr:uid="{B621A508-19AD-4058-B39B-92485527116E}"/>
-    <hyperlink ref="AR12" r:id="rId25" xr:uid="{9846C44D-B6E5-4E26-A3F0-5481AC5398C7}"/>
-    <hyperlink ref="AS12" r:id="rId26" xr:uid="{66FE2CA5-D3B1-42C2-A9C3-9A40862D39FD}"/>
-    <hyperlink ref="AT12" r:id="rId27" xr:uid="{40D50905-2ADF-4810-A73C-32D2E051E03D}"/>
-    <hyperlink ref="AU12" r:id="rId28" xr:uid="{831ED572-CEB5-4180-95AB-3FF52A54D773}"/>
-    <hyperlink ref="AR13" r:id="rId29" xr:uid="{2E40E2F3-A8F6-4D0F-834F-BA53C69BCC42}"/>
-    <hyperlink ref="AS13" r:id="rId30" xr:uid="{B628396A-4CD5-44A6-9177-26E112D665F1}"/>
-    <hyperlink ref="AR14" r:id="rId31" xr:uid="{DC992AF1-89CE-4055-8EC3-CAEDE294CDD6}"/>
-    <hyperlink ref="AS14" r:id="rId32" xr:uid="{97A01122-E494-46CF-974F-54D2ABB040F0}"/>
-    <hyperlink ref="AR15" r:id="rId33" xr:uid="{9541A38A-EAB9-497A-88F2-8A13D8612288}"/>
-    <hyperlink ref="AS15" r:id="rId34" xr:uid="{2555B9AA-EAE2-4C67-B97B-A4844FC89AC3}"/>
-    <hyperlink ref="AT17" r:id="rId35" xr:uid="{A950DF7D-186D-40B8-8EB3-EF050C932756}"/>
-    <hyperlink ref="AS17" r:id="rId36" xr:uid="{54AAA0DC-B370-4DDD-9C3C-56CB44EE27EF}"/>
-    <hyperlink ref="AR17" r:id="rId37" xr:uid="{83C52771-CCF5-4A3E-B1EA-DADFFD20D18D}"/>
-    <hyperlink ref="AR18" r:id="rId38" xr:uid="{36DAEB2B-D3BF-483B-8B3D-1E025DE5711C}"/>
-    <hyperlink ref="AS18" r:id="rId39" xr:uid="{2FE0C5D6-FF9F-4DDC-A366-4BE48D7DE230}"/>
-    <hyperlink ref="AT18" r:id="rId40" xr:uid="{968BD4DA-BBCA-419C-889D-EDE722BA5568}"/>
-    <hyperlink ref="AU18" r:id="rId41" xr:uid="{57C98A65-FDF2-4CFF-B616-7FE3754B66D8}"/>
-    <hyperlink ref="AV18" r:id="rId42" xr:uid="{85A8A0F3-9A53-40A3-B0C9-3B5F5777CC0B}"/>
-    <hyperlink ref="AW18" r:id="rId43" xr:uid="{9F451159-7D11-4FBE-B2FD-795A51E97ECE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
